--- a/biology/Microbiologie/Milieu_Simmons_au_citrate/Milieu_Simmons_au_citrate.xlsx
+++ b/biology/Microbiologie/Milieu_Simmons_au_citrate/Milieu_Simmons_au_citrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le citrate de Simmons est un milieu de culture utilisant le citrate comme seule source de carbone.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">23 g par litre. Stérilisation classique par autoclavage. Conditionnement en tubes inclinés (pour l'oxygénation).
 </t>
@@ -568,7 +584,9 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce milieu ne contient qu’une seule source de carbone : le citrate. Seules les bactéries possédant une citrate perméase, et prototrophes (pas de besoin en facteurs de croissance métaboliques) seront capables de se développer sur ce milieu.
 L’utilisation du citrate peut se faire de diverses manières, ce qui suivant le cas, se traduira par une alcalinisation du milieu, plus ou moins importante.
@@ -606,7 +624,9 @@
           <t>Lecture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Virage vers le bleu (citrate de Simmons +) .Les bactéries utilisant le citrate comme seule source de carbone bleuissent normalement le milieu (alcalinisation);   pas de virage (citrate-) les bactéries ne l'utilisant pas ne cultivent pas. Toutefois, des bactéries peuvent utiliser le citrate comme seule source de carbone sans bleuir (Enterococcus) ce qui peut s'expliquer par une utilisation par fermentation puisque les Enterococcus, par exemple, ne sont pas capables d'utiliser le dioxygène.
 </t>
